--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2999.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2999.xlsx
@@ -354,7 +354,7 @@
         <v>2.438901936369896</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.301625321145128</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2999.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2999.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181232844346149</v>
+        <v>1.729832172393799</v>
       </c>
       <c r="B1">
-        <v>2.438901936369896</v>
+        <v>1.763488411903381</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.929625988006592</v>
       </c>
       <c r="D1">
-        <v>2.301625321145128</v>
+        <v>2.769926786422729</v>
       </c>
       <c r="E1">
-        <v>1.201851349513916</v>
+        <v>4.927236557006836</v>
       </c>
     </row>
   </sheetData>
